--- a/src/P02_data/T01_explore/S04_residual_stress_imputed.xlsx
+++ b/src/P02_data/T01_explore/S04_residual_stress_imputed.xlsx
@@ -16401,7 +16401,7 @@
         <v>319</v>
       </c>
       <c r="K371" t="n">
-        <v>-9.69811320754717</v>
+        <v>-70</v>
       </c>
       <c r="L371" t="n">
         <v>2.5</v>
@@ -30978,7 +30978,7 @@
         <v>48</v>
       </c>
       <c r="K710" t="n">
-        <v>227</v>
+        <v>27.16981132075472</v>
       </c>
       <c r="L710" t="n">
         <v>2.73</v>
@@ -32526,7 +32526,7 @@
         <v>300</v>
       </c>
       <c r="K746" t="n">
-        <v>-109</v>
+        <v>29.78846153846154</v>
       </c>
       <c r="L746" t="n">
         <v>2.88</v>

--- a/src/P02_data/T01_explore/S04_residual_stress_imputed.xlsx
+++ b/src/P02_data/T01_explore/S04_residual_stress_imputed.xlsx
@@ -16401,7 +16401,7 @@
         <v>319</v>
       </c>
       <c r="K371" t="n">
-        <v>-70</v>
+        <v>-9.69811320754717</v>
       </c>
       <c r="L371" t="n">
         <v>2.5</v>
@@ -30634,7 +30634,7 @@
         <v>370</v>
       </c>
       <c r="K702" t="n">
-        <v>-8.943396226415095</v>
+        <v>-1</v>
       </c>
       <c r="L702" t="n">
         <v>2.49</v>
